--- a/tools/yolov4-csp.xlsx
+++ b/tools/yolov4-csp.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maruyama/Projects/private/public/yolo_various_platforms/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EADC5D97-965F-1E47-BFC0-3F7A2A68AA24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BB2FBD-2AF0-7749-90AA-DEA089F1D9AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="420" windowWidth="28300" windowHeight="17440"/>
+    <workbookView xWindow="-680" yWindow="-20560" windowWidth="21560" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yolov4-csp" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -397,7 +397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,6 +589,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -706,40 +724,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="8"/>
+      <left style="thin">
+        <color theme="3"/>
       </left>
-      <right style="medium">
-        <color theme="8"/>
+      <right style="thin">
+        <color theme="3"/>
       </right>
-      <top style="medium">
-        <color theme="8"/>
+      <top style="thin">
+        <color theme="3"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="8"/>
+      <left style="thin">
+        <color theme="3"/>
       </left>
-      <right style="medium">
-        <color theme="8"/>
-      </right>
-      <top/>
-      <bottom/>
+      <right/>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="8"/>
+      <left style="thin">
+        <color theme="3"/>
       </left>
-      <right style="medium">
-        <color theme="8"/>
+      <right style="thin">
+        <color theme="3"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="8"/>
-      </bottom>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -871,42 +893,72 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1262,11 +1314,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L116" sqref="L116:N117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M121" sqref="M121:N129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1309,11 +1361,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
       <c r="O1" t="s">
         <v>45</v>
       </c>
@@ -1346,15 +1398,15 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="21" thickBot="1">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1385,10 +1437,10 @@
       <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
@@ -1418,11 +1470,11 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -1452,11 +1504,11 @@
       <c r="I5">
         <v>3</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="21" thickBot="1">
+      <c r="L5" s="11"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1469,9 +1521,9 @@
       <c r="J6">
         <v>-3</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:15" ht="20" customHeight="1">
       <c r="A7" t="s">
@@ -1504,10 +1556,10 @@
       <c r="L7" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:15" ht="20" customHeight="1">
       <c r="A8" t="s">
@@ -1540,8 +1592,8 @@
       <c r="L8" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
@@ -1556,10 +1608,10 @@
       <c r="L9" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="21" customHeight="1" thickBot="1">
+      <c r="M9" s="12"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" ht="21" customHeight="1">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1590,8 +1642,8 @@
       <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -1621,11 +1673,11 @@
       <c r="I11">
         <v>9</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
@@ -1655,11 +1707,11 @@
       <c r="I12">
         <v>10</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="21" thickBot="1">
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1672,9 +1724,9 @@
       <c r="J13">
         <v>-3</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="1"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
@@ -1704,11 +1756,11 @@
       <c r="I14">
         <v>12</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
@@ -1738,11 +1790,11 @@
       <c r="I15">
         <v>13</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" ht="21" thickBot="1">
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1755,9 +1807,9 @@
       <c r="J16">
         <v>-3</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="1"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
@@ -1790,8 +1842,8 @@
       <c r="L17" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="1"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
@@ -1806,8 +1858,8 @@
       <c r="L18" t="s">
         <v>38</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
@@ -1840,8 +1892,8 @@
       <c r="L19" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="1"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" ht="20" customHeight="1">
       <c r="A20" t="s">
@@ -1874,10 +1926,10 @@
       <c r="L20" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
@@ -1910,8 +1962,8 @@
       <c r="L21" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="1"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
@@ -1926,10 +1978,10 @@
       <c r="L22" t="s">
         <v>37</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="M22" s="12"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" ht="21" customHeight="1">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1960,8 +2012,8 @@
       <c r="L23" t="s">
         <v>37</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="1"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
@@ -1991,11 +2043,11 @@
       <c r="I24">
         <v>22</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="1"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
@@ -2025,11 +2077,11 @@
       <c r="I25">
         <v>23</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" ht="21" thickBot="1">
+      <c r="L25" s="9"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2042,9 +2094,9 @@
       <c r="J26">
         <v>-3</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="1"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
@@ -2074,11 +2126,11 @@
       <c r="I27">
         <v>25</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="1"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
@@ -2108,11 +2160,11 @@
       <c r="I28">
         <v>26</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" ht="21" thickBot="1">
+      <c r="L28" s="9"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2125,9 +2177,9 @@
       <c r="J29">
         <v>-3</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="1"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
@@ -2157,11 +2209,11 @@
       <c r="I30">
         <v>28</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="1"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
@@ -2191,11 +2243,11 @@
       <c r="I31">
         <v>29</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" ht="21" thickBot="1">
+      <c r="L31" s="9"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="15"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2208,9 +2260,9 @@
       <c r="J32">
         <v>-3</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="1"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
@@ -2240,11 +2292,11 @@
       <c r="I33">
         <v>31</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="1"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="15"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
@@ -2274,11 +2326,11 @@
       <c r="I34">
         <v>32</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" ht="21" thickBot="1">
+      <c r="L34" s="9"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="15"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2291,9 +2343,9 @@
       <c r="J35">
         <v>-3</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="1"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="15"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
@@ -2323,11 +2375,11 @@
       <c r="I36">
         <v>34</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="1"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
@@ -2357,11 +2409,11 @@
       <c r="I37">
         <v>35</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" ht="21" thickBot="1">
+      <c r="L37" s="9"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2374,9 +2426,9 @@
       <c r="J38">
         <v>-3</v>
       </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="1"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="15"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
@@ -2406,11 +2458,11 @@
       <c r="I39">
         <v>37</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="1"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="15"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
@@ -2440,11 +2492,11 @@
       <c r="I40">
         <v>38</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" ht="21" thickBot="1">
+      <c r="L40" s="9"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="15"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2457,9 +2509,9 @@
       <c r="J41">
         <v>-3</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="1"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="15"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
@@ -2489,11 +2541,11 @@
       <c r="I42">
         <v>40</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="1"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
@@ -2523,11 +2575,11 @@
       <c r="I43">
         <v>41</v>
       </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" ht="21" thickBot="1">
+      <c r="L43" s="9"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="15"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2540,9 +2592,9 @@
       <c r="J44">
         <v>-3</v>
       </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="1"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="15"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
@@ -2572,11 +2624,11 @@
       <c r="I45">
         <v>43</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="1"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="15"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
@@ -2606,11 +2658,11 @@
       <c r="I46">
         <v>44</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" ht="21" thickBot="1">
+      <c r="L46" s="9"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="15"/>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2623,9 +2675,9 @@
       <c r="J47">
         <v>-3</v>
       </c>
-      <c r="L47" s="5"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="1"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="15"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
@@ -2658,8 +2710,8 @@
       <c r="L48" t="s">
         <v>37</v>
       </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="1"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="15"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
@@ -2674,8 +2726,8 @@
       <c r="L49" t="s">
         <v>38</v>
       </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="1"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="15"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
@@ -2702,14 +2754,14 @@
       <c r="H50">
         <v>1</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="2">
         <v>48</v>
       </c>
       <c r="L50" t="s">
         <v>35</v>
       </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="1"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="15"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
@@ -2742,10 +2794,10 @@
       <c r="L51" t="s">
         <v>35</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="N51" s="1"/>
+      <c r="N51" s="15"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
@@ -2778,8 +2830,8 @@
       <c r="L52" t="s">
         <v>36</v>
       </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="1"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="15"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
@@ -2794,10 +2846,10 @@
       <c r="L53" t="s">
         <v>37</v>
       </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="M53" s="16"/>
+      <c r="N53" s="15"/>
+    </row>
+    <row r="54" spans="1:14" ht="21" customHeight="1">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -2828,8 +2880,8 @@
       <c r="L54" t="s">
         <v>37</v>
       </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="1"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
@@ -2859,11 +2911,11 @@
       <c r="I55">
         <v>53</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="1"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="15"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
@@ -2893,11 +2945,11 @@
       <c r="I56">
         <v>54</v>
       </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" ht="21" thickBot="1">
+      <c r="L56" s="11"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="15"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2910,9 +2962,9 @@
       <c r="J57">
         <v>-3</v>
       </c>
-      <c r="L57" s="5"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="1"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
@@ -2942,11 +2994,11 @@
       <c r="I58">
         <v>56</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="1"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="15"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
@@ -2976,11 +3028,11 @@
       <c r="I59">
         <v>57</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" ht="21" thickBot="1">
+      <c r="L59" s="11"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="15"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -2993,9 +3045,9 @@
       <c r="J60">
         <v>-3</v>
       </c>
-      <c r="L60" s="5"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="1"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="15"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
@@ -3025,11 +3077,11 @@
       <c r="I61">
         <v>59</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="L61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="1"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="15"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
@@ -3059,11 +3111,11 @@
       <c r="I62">
         <v>60</v>
       </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" ht="21" thickBot="1">
+      <c r="L62" s="11"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="15"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -3076,9 +3128,9 @@
       <c r="J63">
         <v>-3</v>
       </c>
-      <c r="L63" s="5"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="1"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="15"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
@@ -3108,11 +3160,11 @@
       <c r="I64">
         <v>62</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="L64" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="1"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="15"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
@@ -3142,11 +3194,11 @@
       <c r="I65">
         <v>63</v>
       </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="1:14" ht="21" thickBot="1">
+      <c r="L65" s="11"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="15"/>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -3159,9 +3211,9 @@
       <c r="J66">
         <v>-3</v>
       </c>
-      <c r="L66" s="5"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="1"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="15"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
@@ -3191,11 +3243,11 @@
       <c r="I67">
         <v>65</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="L67" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="1"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="15"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
@@ -3225,11 +3277,11 @@
       <c r="I68">
         <v>66</v>
       </c>
-      <c r="L68" s="4"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" ht="21" thickBot="1">
+      <c r="L68" s="11"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="15"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -3242,9 +3294,9 @@
       <c r="J69">
         <v>-3</v>
       </c>
-      <c r="L69" s="5"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="1"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="15"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
@@ -3274,11 +3326,11 @@
       <c r="I70">
         <v>68</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="L70" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="1"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="15"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
@@ -3308,11 +3360,11 @@
       <c r="I71">
         <v>69</v>
       </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="1:14" ht="21" thickBot="1">
+      <c r="L71" s="11"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="15"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -3325,9 +3377,9 @@
       <c r="J72">
         <v>-3</v>
       </c>
-      <c r="L72" s="5"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="1"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="15"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
@@ -3357,11 +3409,11 @@
       <c r="I73">
         <v>71</v>
       </c>
-      <c r="L73" s="3" t="s">
+      <c r="L73" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="1"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="15"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
@@ -3391,11 +3443,11 @@
       <c r="I74">
         <v>72</v>
       </c>
-      <c r="L74" s="4"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="1:14" ht="21" thickBot="1">
+      <c r="L74" s="11"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="15"/>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -3408,9 +3460,9 @@
       <c r="J75">
         <v>-3</v>
       </c>
-      <c r="L75" s="5"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="1"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="15"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
@@ -3440,11 +3492,11 @@
       <c r="I76">
         <v>74</v>
       </c>
-      <c r="L76" s="3" t="s">
+      <c r="L76" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="1"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="15"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" t="s">
@@ -3474,11 +3526,11 @@
       <c r="I77">
         <v>75</v>
       </c>
-      <c r="L77" s="4"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="1"/>
-    </row>
-    <row r="78" spans="1:14" ht="21" thickBot="1">
+      <c r="L77" s="11"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="15"/>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -3491,9 +3543,9 @@
       <c r="J78">
         <v>-3</v>
       </c>
-      <c r="L78" s="5"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="1"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="15"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
@@ -3526,8 +3578,8 @@
       <c r="L79" t="s">
         <v>37</v>
       </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="1"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="15"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
@@ -3542,8 +3594,8 @@
       <c r="L80" t="s">
         <v>38</v>
       </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="1"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="15"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
@@ -3570,14 +3622,14 @@
       <c r="H81">
         <v>1</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="2">
         <v>79</v>
       </c>
       <c r="L81" t="s">
         <v>35</v>
       </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="1"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="15"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
@@ -3610,10 +3662,10 @@
       <c r="L82" t="s">
         <v>35</v>
       </c>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="N82" s="1"/>
+      <c r="N82" s="15"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
@@ -3646,8 +3698,8 @@
       <c r="L83" t="s">
         <v>36</v>
       </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="1"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="15"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
@@ -3662,10 +3714,10 @@
       <c r="L84" t="s">
         <v>37</v>
       </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="1"/>
-    </row>
-    <row r="85" spans="1:14" ht="21" customHeight="1" thickBot="1">
+      <c r="M84" s="16"/>
+      <c r="N84" s="15"/>
+    </row>
+    <row r="85" spans="1:14" ht="21" customHeight="1">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -3696,8 +3748,8 @@
       <c r="L85" t="s">
         <v>37</v>
       </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="1"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
@@ -3727,11 +3779,11 @@
       <c r="I86">
         <v>84</v>
       </c>
-      <c r="L86" s="3" t="s">
+      <c r="L86" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="1"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
@@ -3761,11 +3813,11 @@
       <c r="I87">
         <v>85</v>
       </c>
-      <c r="L87" s="4"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="1"/>
-    </row>
-    <row r="88" spans="1:14" ht="21" thickBot="1">
+      <c r="L87" s="11"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="15"/>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -3778,9 +3830,9 @@
       <c r="J88">
         <v>-3</v>
       </c>
-      <c r="L88" s="5"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="1"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="15"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
@@ -3810,11 +3862,11 @@
       <c r="I89">
         <v>87</v>
       </c>
-      <c r="L89" s="3" t="s">
+      <c r="L89" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="1"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="15"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
@@ -3844,11 +3896,11 @@
       <c r="I90">
         <v>88</v>
       </c>
-      <c r="L90" s="4"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="1"/>
-    </row>
-    <row r="91" spans="1:14" ht="21" thickBot="1">
+      <c r="L90" s="11"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="15"/>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -3861,9 +3913,9 @@
       <c r="J91">
         <v>-3</v>
       </c>
-      <c r="L91" s="5"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="1"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="15"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
@@ -3893,11 +3945,11 @@
       <c r="I92">
         <v>90</v>
       </c>
-      <c r="L92" s="3" t="s">
+      <c r="L92" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="1"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="15"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
@@ -3927,11 +3979,11 @@
       <c r="I93">
         <v>91</v>
       </c>
-      <c r="L93" s="4"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="1"/>
-    </row>
-    <row r="94" spans="1:14" ht="21" thickBot="1">
+      <c r="L93" s="11"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="15"/>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -3944,9 +3996,9 @@
       <c r="J94">
         <v>-3</v>
       </c>
-      <c r="L94" s="5"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="1"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="15"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
@@ -3976,11 +4028,11 @@
       <c r="I95">
         <v>93</v>
       </c>
-      <c r="L95" s="3" t="s">
+      <c r="L95" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="1"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="15"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
@@ -4010,11 +4062,11 @@
       <c r="I96">
         <v>94</v>
       </c>
-      <c r="L96" s="4"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="1"/>
-    </row>
-    <row r="97" spans="1:14" ht="21" thickBot="1">
+      <c r="L96" s="11"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="15"/>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -4027,9 +4079,9 @@
       <c r="J97">
         <v>-3</v>
       </c>
-      <c r="L97" s="5"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="1"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="15"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" t="s">
@@ -4062,8 +4114,8 @@
       <c r="L98" t="s">
         <v>37</v>
       </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="1"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="15"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" t="s">
@@ -4078,8 +4130,8 @@
       <c r="L99" t="s">
         <v>38</v>
       </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="1"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="15"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" t="s">
@@ -4112,8 +4164,8 @@
       <c r="L100" t="s">
         <v>35</v>
       </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="1"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="15"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" t="s">
@@ -4146,10 +4198,10 @@
       <c r="L101" t="s">
         <v>35</v>
       </c>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N101" s="1"/>
+      <c r="N101" s="15"/>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" t="s">
@@ -4164,8 +4216,8 @@
       <c r="L102" t="s">
         <v>37</v>
       </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="1"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="15"/>
     </row>
     <row r="103" spans="1:14" ht="20" customHeight="1">
       <c r="A103" t="s">
@@ -4195,11 +4247,11 @@
       <c r="I103">
         <v>101</v>
       </c>
-      <c r="L103" s="8" t="s">
+      <c r="L103" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="1"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="15"/>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" t="s">
@@ -4229,11 +4281,11 @@
       <c r="I104">
         <v>102</v>
       </c>
-      <c r="L104" s="6" t="s">
+      <c r="L104" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="1"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="15"/>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
@@ -4263,11 +4315,11 @@
       <c r="I105">
         <v>103</v>
       </c>
-      <c r="L105" s="6" t="s">
+      <c r="L105" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="1"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="15"/>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
@@ -4282,11 +4334,11 @@
       <c r="I106">
         <v>104</v>
       </c>
-      <c r="L106" s="6" t="s">
+      <c r="L106" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="1"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="15"/>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" t="s">
@@ -4298,11 +4350,11 @@
       <c r="K107">
         <v>-2</v>
       </c>
-      <c r="L107" s="6" t="s">
+      <c r="L107" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="1"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="15"/>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" t="s">
@@ -4317,11 +4369,11 @@
       <c r="I108">
         <v>106</v>
       </c>
-      <c r="L108" s="6" t="s">
+      <c r="L108" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="1"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="15"/>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" t="s">
@@ -4333,11 +4385,11 @@
       <c r="K109">
         <v>-4</v>
       </c>
-      <c r="L109" s="6" t="s">
+      <c r="L109" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="1"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="15"/>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" t="s">
@@ -4352,11 +4404,11 @@
       <c r="I110">
         <v>108</v>
       </c>
-      <c r="L110" s="6" t="s">
+      <c r="L110" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="1"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="15"/>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" t="s">
@@ -4368,11 +4420,11 @@
       <c r="K111" t="s">
         <v>20</v>
       </c>
-      <c r="L111" s="6" t="s">
+      <c r="L111" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="1"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="15"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" t="s">
@@ -4402,11 +4454,11 @@
       <c r="I112">
         <v>110</v>
       </c>
-      <c r="L112" s="6" t="s">
+      <c r="L112" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="1"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="15"/>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" t="s">
@@ -4436,11 +4488,11 @@
       <c r="I113">
         <v>111</v>
       </c>
-      <c r="L113" s="6" t="s">
+      <c r="L113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="1"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="15"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" t="s">
@@ -4452,11 +4504,11 @@
       <c r="K114" t="s">
         <v>21</v>
       </c>
-      <c r="L114" s="6" t="s">
+      <c r="L114" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="1"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="15"/>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" t="s">
@@ -4483,14 +4535,14 @@
       <c r="H115">
         <v>1</v>
       </c>
-      <c r="I115" s="7">
+      <c r="I115" s="2">
         <v>113</v>
       </c>
-      <c r="L115" s="6" t="s">
+      <c r="L115" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="1"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="19"/>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" t="s">
@@ -4520,11 +4572,11 @@
       <c r="I116">
         <v>114</v>
       </c>
-      <c r="L116" s="1" t="s">
+      <c r="L116" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
+      <c r="M116" s="20"/>
+      <c r="N116" s="20"/>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" t="s">
@@ -4533,12 +4585,12 @@
       <c r="E117">
         <v>2</v>
       </c>
-      <c r="I117" s="7">
+      <c r="I117" s="2">
         <v>115</v>
       </c>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
+      <c r="L117" s="20"/>
+      <c r="M117" s="20"/>
+      <c r="N117" s="20"/>
     </row>
     <row r="118" spans="1:14" ht="20" customHeight="1">
       <c r="A118" t="s">
@@ -4550,10 +4602,10 @@
       <c r="K118">
         <v>79</v>
       </c>
-      <c r="L118" s="9" t="s">
+      <c r="L118" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N118" s="8"/>
+      <c r="N118" s="3"/>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" t="s">
@@ -4583,11 +4635,11 @@
       <c r="I119">
         <v>117</v>
       </c>
-      <c r="L119" s="11" t="s">
+      <c r="L119" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M119" s="11"/>
-      <c r="N119" s="11"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" t="s">
@@ -4599,11 +4651,11 @@
       <c r="K120" t="s">
         <v>23</v>
       </c>
-      <c r="L120" s="10" t="s">
+      <c r="L120" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
     </row>
     <row r="121" spans="1:14" ht="20" customHeight="1">
       <c r="A121" t="s">
@@ -4633,13 +4685,13 @@
       <c r="I121">
         <v>119</v>
       </c>
-      <c r="L121" s="6" t="s">
+      <c r="L121" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N121" s="2"/>
+      <c r="N121" s="8"/>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" t="s">
@@ -4669,11 +4721,11 @@
       <c r="I122">
         <v>120</v>
       </c>
-      <c r="L122" s="6" t="s">
+      <c r="L122" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" t="s">
@@ -4685,11 +4737,11 @@
       <c r="K123">
         <v>-2</v>
       </c>
-      <c r="L123" s="6" t="s">
+      <c r="L123" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
     </row>
     <row r="124" spans="1:14" ht="20" customHeight="1">
       <c r="A124" t="s">
@@ -4719,11 +4771,11 @@
       <c r="I124">
         <v>122</v>
       </c>
-      <c r="L124" s="6" t="s">
+      <c r="L124" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" t="s">
@@ -4753,11 +4805,11 @@
       <c r="I125">
         <v>123</v>
       </c>
-      <c r="L125" s="6" t="s">
+      <c r="L125" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="8"/>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" t="s">
@@ -4787,11 +4839,11 @@
       <c r="I126">
         <v>124</v>
       </c>
-      <c r="L126" s="6" t="s">
+      <c r="L126" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" t="s">
@@ -4821,11 +4873,11 @@
       <c r="I127">
         <v>125</v>
       </c>
-      <c r="L127" s="6" t="s">
+      <c r="L127" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" t="s">
@@ -4837,11 +4889,11 @@
       <c r="K128" t="s">
         <v>24</v>
       </c>
-      <c r="L128" s="6" t="s">
+      <c r="L128" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
@@ -4868,14 +4920,14 @@
       <c r="H129">
         <v>1</v>
       </c>
-      <c r="I129" s="7">
+      <c r="I129" s="2">
         <v>127</v>
       </c>
-      <c r="L129" s="6" t="s">
+      <c r="L129" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
+      <c r="M129" s="21"/>
+      <c r="N129" s="21"/>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" t="s">
@@ -4905,11 +4957,11 @@
       <c r="I130">
         <v>128</v>
       </c>
-      <c r="L130" s="1" t="s">
+      <c r="L130" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
+      <c r="M130" s="20"/>
+      <c r="N130" s="20"/>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" t="s">
@@ -4918,12 +4970,12 @@
       <c r="E131">
         <v>2</v>
       </c>
-      <c r="I131" s="7">
+      <c r="I131" s="2">
         <v>129</v>
       </c>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="20"/>
     </row>
     <row r="132" spans="1:14" ht="20" customHeight="1">
       <c r="A132" t="s">
@@ -4935,11 +4987,11 @@
       <c r="K132">
         <v>48</v>
       </c>
-      <c r="L132" s="9" t="s">
+      <c r="L132" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" t="s">
@@ -4969,11 +5021,11 @@
       <c r="I133">
         <v>131</v>
       </c>
-      <c r="L133" s="11" t="s">
+      <c r="L133" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="7"/>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" t="s">
@@ -4985,11 +5037,11 @@
       <c r="K134" t="s">
         <v>23</v>
       </c>
-      <c r="L134" s="10" t="s">
+      <c r="L134" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M134" s="8"/>
-      <c r="N134" s="8"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" t="s">
@@ -5019,13 +5071,13 @@
       <c r="I135">
         <v>133</v>
       </c>
-      <c r="L135" s="6" t="s">
+      <c r="L135" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N135" s="2"/>
+      <c r="N135" s="8"/>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
@@ -5055,11 +5107,11 @@
       <c r="I136">
         <v>134</v>
       </c>
-      <c r="L136" s="6" t="s">
+      <c r="L136" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" t="s">
@@ -5071,11 +5123,11 @@
       <c r="K137">
         <v>-2</v>
       </c>
-      <c r="L137" s="6" t="s">
+      <c r="L137" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
     </row>
     <row r="138" spans="1:14" ht="20" customHeight="1">
       <c r="A138" t="s">
@@ -5105,11 +5157,11 @@
       <c r="I138">
         <v>136</v>
       </c>
-      <c r="L138" s="6" t="s">
+      <c r="L138" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" t="s">
@@ -5139,11 +5191,11 @@
       <c r="I139">
         <v>137</v>
       </c>
-      <c r="L139" s="6" t="s">
+      <c r="L139" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
+      <c r="M139" s="8"/>
+      <c r="N139" s="8"/>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" t="s">
@@ -5173,11 +5225,11 @@
       <c r="I140">
         <v>138</v>
       </c>
-      <c r="L140" s="6" t="s">
+      <c r="L140" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="8"/>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" t="s">
@@ -5207,11 +5259,11 @@
       <c r="I141">
         <v>139</v>
       </c>
-      <c r="L141" s="6" t="s">
+      <c r="L141" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" t="s">
@@ -5223,11 +5275,11 @@
       <c r="K142" t="s">
         <v>24</v>
       </c>
-      <c r="L142" s="6" t="s">
+      <c r="L142" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
+      <c r="M142" s="8"/>
+      <c r="N142" s="8"/>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" t="s">
@@ -5254,14 +5306,14 @@
       <c r="H143">
         <v>1</v>
       </c>
-      <c r="I143" s="7">
+      <c r="I143" s="2">
         <v>141</v>
       </c>
-      <c r="L143" s="6" t="s">
+      <c r="L143" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
+      <c r="M143" s="21"/>
+      <c r="N143" s="21"/>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
@@ -5291,11 +5343,11 @@
       <c r="I144">
         <v>142</v>
       </c>
-      <c r="L144" s="1" t="s">
+      <c r="L144" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
+      <c r="M144" s="15"/>
+      <c r="N144" s="15"/>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" t="s">
@@ -5322,9 +5374,9 @@
       <c r="I145">
         <v>143</v>
       </c>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" t="s">
@@ -5333,9 +5385,9 @@
       <c r="I146">
         <v>144</v>
       </c>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
       <c r="O146" t="s">
         <v>53</v>
       </c>
@@ -5350,7 +5402,7 @@
       <c r="K147">
         <v>-4</v>
       </c>
-      <c r="L147" s="6" t="s">
+      <c r="L147" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5382,11 +5434,11 @@
       <c r="I148">
         <v>146</v>
       </c>
-      <c r="L148" s="1" t="s">
+      <c r="L148" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" t="s">
@@ -5430,13 +5482,13 @@
       <c r="I150">
         <v>148</v>
       </c>
-      <c r="L150" s="6" t="s">
+      <c r="L150" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N150" s="2"/>
+      <c r="N150" s="8"/>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" t="s">
@@ -5466,11 +5518,11 @@
       <c r="I151">
         <v>149</v>
       </c>
-      <c r="L151" s="6" t="s">
+      <c r="L151" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
+      <c r="M151" s="8"/>
+      <c r="N151" s="8"/>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" t="s">
@@ -5482,11 +5534,11 @@
       <c r="K152">
         <v>-2</v>
       </c>
-      <c r="L152" s="6" t="s">
+      <c r="L152" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
     </row>
     <row r="153" spans="1:15">
       <c r="A153" t="s">
@@ -5516,11 +5568,11 @@
       <c r="I153">
         <v>151</v>
       </c>
-      <c r="L153" s="6" t="s">
+      <c r="L153" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
+      <c r="M153" s="8"/>
+      <c r="N153" s="8"/>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" t="s">
@@ -5550,11 +5602,11 @@
       <c r="I154">
         <v>152</v>
       </c>
-      <c r="L154" s="6" t="s">
+      <c r="L154" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
+      <c r="M154" s="8"/>
+      <c r="N154" s="8"/>
     </row>
     <row r="155" spans="1:15">
       <c r="A155" t="s">
@@ -5584,11 +5636,11 @@
       <c r="I155">
         <v>153</v>
       </c>
-      <c r="L155" s="6" t="s">
+      <c r="L155" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
+      <c r="M155" s="8"/>
+      <c r="N155" s="8"/>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" t="s">
@@ -5618,11 +5670,11 @@
       <c r="I156">
         <v>154</v>
       </c>
-      <c r="L156" s="6" t="s">
+      <c r="L156" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
+      <c r="M156" s="8"/>
+      <c r="N156" s="8"/>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" t="s">
@@ -5634,11 +5686,11 @@
       <c r="K157" t="s">
         <v>28</v>
       </c>
-      <c r="L157" s="6" t="s">
+      <c r="L157" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
+      <c r="M157" s="8"/>
+      <c r="N157" s="8"/>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" t="s">
@@ -5665,14 +5717,14 @@
       <c r="H158">
         <v>1</v>
       </c>
-      <c r="I158" s="7">
+      <c r="I158" s="2">
         <v>156</v>
       </c>
-      <c r="L158" s="6" t="s">
+      <c r="L158" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
+      <c r="M158" s="21"/>
+      <c r="N158" s="21"/>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" t="s">
@@ -5702,11 +5754,11 @@
       <c r="I159">
         <v>157</v>
       </c>
-      <c r="L159" s="1" t="s">
+      <c r="L159" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
+      <c r="M159" s="15"/>
+      <c r="N159" s="15"/>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" t="s">
@@ -5733,9 +5785,9 @@
       <c r="I160">
         <v>158</v>
       </c>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15"/>
+      <c r="N160" s="15"/>
     </row>
     <row r="161" spans="1:15">
       <c r="A161" t="s">
@@ -5744,9 +5796,9 @@
       <c r="I161">
         <v>159</v>
       </c>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
+      <c r="N161" s="15"/>
       <c r="O161" t="s">
         <v>54</v>
       </c>
@@ -5761,7 +5813,7 @@
       <c r="K162">
         <v>-4</v>
       </c>
-      <c r="L162" s="6" t="s">
+      <c r="L162" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5793,11 +5845,11 @@
       <c r="I163">
         <v>161</v>
       </c>
-      <c r="L163" s="1" t="s">
+      <c r="L163" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" t="s">
@@ -5841,13 +5893,13 @@
       <c r="I165">
         <v>163</v>
       </c>
-      <c r="L165" s="6" t="s">
+      <c r="L165" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N165" s="2"/>
+      <c r="N165" s="8"/>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" t="s">
@@ -5877,11 +5929,11 @@
       <c r="I166">
         <v>164</v>
       </c>
-      <c r="L166" s="6" t="s">
+      <c r="L166" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
+      <c r="M166" s="8"/>
+      <c r="N166" s="8"/>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" t="s">
@@ -5893,11 +5945,11 @@
       <c r="K167">
         <v>-2</v>
       </c>
-      <c r="L167" s="6" t="s">
+      <c r="L167" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
+      <c r="M167" s="8"/>
+      <c r="N167" s="8"/>
     </row>
     <row r="168" spans="1:15" ht="20" customHeight="1">
       <c r="A168" t="s">
@@ -5927,11 +5979,11 @@
       <c r="I168">
         <v>166</v>
       </c>
-      <c r="L168" s="6" t="s">
+      <c r="L168" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
+      <c r="M168" s="8"/>
+      <c r="N168" s="8"/>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" t="s">
@@ -5961,11 +6013,11 @@
       <c r="I169">
         <v>167</v>
       </c>
-      <c r="L169" s="6" t="s">
+      <c r="L169" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
+      <c r="M169" s="8"/>
+      <c r="N169" s="8"/>
     </row>
     <row r="170" spans="1:15">
       <c r="A170" t="s">
@@ -5995,11 +6047,11 @@
       <c r="I170">
         <v>168</v>
       </c>
-      <c r="L170" s="6" t="s">
+      <c r="L170" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
+      <c r="M170" s="8"/>
+      <c r="N170" s="8"/>
     </row>
     <row r="171" spans="1:15">
       <c r="A171" t="s">
@@ -6029,11 +6081,11 @@
       <c r="I171">
         <v>169</v>
       </c>
-      <c r="L171" s="6" t="s">
+      <c r="L171" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
+      <c r="M171" s="8"/>
+      <c r="N171" s="8"/>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" t="s">
@@ -6045,11 +6097,11 @@
       <c r="K172" t="s">
         <v>28</v>
       </c>
-      <c r="L172" s="6" t="s">
+      <c r="L172" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
+      <c r="M172" s="8"/>
+      <c r="N172" s="8"/>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" t="s">
@@ -6079,11 +6131,11 @@
       <c r="I173">
         <v>171</v>
       </c>
-      <c r="L173" s="6" t="s">
+      <c r="L173" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
+      <c r="M173" s="21"/>
+      <c r="N173" s="21"/>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" t="s">
@@ -6113,11 +6165,11 @@
       <c r="I174">
         <v>172</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="L174" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
+      <c r="M174" s="15"/>
+      <c r="N174" s="15"/>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" t="s">
@@ -6144,9 +6196,9 @@
       <c r="I175">
         <v>173</v>
       </c>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
+      <c r="L175" s="15"/>
+      <c r="M175" s="15"/>
+      <c r="N175" s="15"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" t="s">
@@ -6155,27 +6207,21 @@
       <c r="I176">
         <v>174</v>
       </c>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
+      <c r="L176" s="15"/>
+      <c r="M176" s="15"/>
+      <c r="N176" s="15"/>
       <c r="O176" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="N2:N115"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L133:N133"/>
-    <mergeCell ref="L119:N119"/>
-    <mergeCell ref="M121:N129"/>
-    <mergeCell ref="M135:N143"/>
-    <mergeCell ref="M7:M19"/>
-    <mergeCell ref="M20:M50"/>
-    <mergeCell ref="M51:M81"/>
-    <mergeCell ref="M82:M100"/>
-    <mergeCell ref="M101:M115"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
     <mergeCell ref="L174:N176"/>
     <mergeCell ref="L159:N161"/>
     <mergeCell ref="L144:N146"/>
@@ -6183,9 +6229,14 @@
     <mergeCell ref="L148:N148"/>
     <mergeCell ref="M165:N173"/>
     <mergeCell ref="L163:N163"/>
+    <mergeCell ref="M135:N143"/>
+    <mergeCell ref="M7:M19"/>
+    <mergeCell ref="M20:M50"/>
+    <mergeCell ref="M51:M81"/>
+    <mergeCell ref="M82:M100"/>
+    <mergeCell ref="M101:M115"/>
     <mergeCell ref="L116:N117"/>
     <mergeCell ref="L130:N131"/>
-    <mergeCell ref="M3:M6"/>
     <mergeCell ref="L76:L78"/>
     <mergeCell ref="L86:L88"/>
     <mergeCell ref="L89:L91"/>
@@ -6194,6 +6245,13 @@
     <mergeCell ref="L58:L60"/>
     <mergeCell ref="L61:L63"/>
     <mergeCell ref="L64:L66"/>
+    <mergeCell ref="N2:N115"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L133:N133"/>
+    <mergeCell ref="L119:N119"/>
+    <mergeCell ref="M121:N129"/>
+    <mergeCell ref="M3:M6"/>
     <mergeCell ref="L67:L69"/>
     <mergeCell ref="L70:L72"/>
     <mergeCell ref="L73:L75"/>
@@ -6203,12 +6261,6 @@
     <mergeCell ref="L42:L44"/>
     <mergeCell ref="L45:L47"/>
     <mergeCell ref="L55:L57"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="L30:L32"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
